--- a/Simulador_Investimentos.xlsx
+++ b/Simulador_Investimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e43b9ebd7de16a7/Documents/GitHub/dio-vivo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{E7330DBF-1F4E-447C-8457-BC101A9306C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E3E5F8-4A9B-4E64-81DF-C930DFBF8DFA}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{E7330DBF-1F4E-447C-8457-BC101A9306C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B88B8D5-8697-405E-A9EA-63A5AF1E8F9F}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="740" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{A1BEA54B-EB04-4B16-9327-7657BB427491}"/>
   </bookViews>
@@ -16,17 +16,15 @@
     <sheet name="APP" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="aporte">APP!$D$19</definedName>
     <definedName name="patrimonio">APP!$D$22</definedName>
     <definedName name="qtd_anos">APP!$D$20</definedName>
     <definedName name="rendimento_carteira">APP!$D$14</definedName>
+    <definedName name="salario">APP!$D$13</definedName>
     <definedName name="taxa_mensal">APP!$D$21</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>CONFIGURAÇÕES</t>
   </si>
@@ -170,18 +168,17 @@
     <t>%</t>
   </si>
   <si>
-    <t>Agressivo-PAPEL</t>
+    <t>Conservador-DESENVOLVIMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -318,13 +315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,56 +623,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,28 +655,28 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -719,10 +685,10 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="11" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="11" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
@@ -734,10 +700,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -747,17 +713,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,12 +738,32 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -832,39 +822,24 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
+              <a:gradFill>
                 <a:gsLst>
-                  <a:gs pos="0">
+                  <a:gs pos="100000">
                     <a:schemeClr val="accent1">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -878,39 +853,24 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
+              <a:gradFill>
                 <a:gsLst>
-                  <a:gs pos="0">
+                  <a:gs pos="100000">
                     <a:schemeClr val="accent2">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2"/>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -924,39 +884,24 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
+              <a:gradFill>
                 <a:gsLst>
-                  <a:gs pos="0">
+                  <a:gs pos="100000">
                     <a:schemeClr val="accent3">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3"/>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -970,39 +915,24 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
+              <a:gradFill>
                 <a:gsLst>
-                  <a:gs pos="0">
+                  <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1016,39 +946,24 @@
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
+              <a:gradFill>
                 <a:gsLst>
-                  <a:gs pos="0">
+                  <a:gs pos="100000">
                     <a:schemeClr val="accent5">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5"/>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1062,39 +977,24 @@
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
+              <a:gradFill>
                 <a:gsLst>
-                  <a:gs pos="0">
+                  <a:gs pos="100000">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6"/>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1105,6 +1005,102 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BB52-4949-B976-B3DA9EC3D9E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BB52-4949-B976-B3DA9EC3D9E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BB52-4949-B976-B3DA9EC3D9E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-BB52-4949-B976-B3DA9EC3D9E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-BB52-4949-B976-B3DA9EC3D9E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-BB52-4949-B976-B3DA9EC3D9E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1121,9 +1117,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1134,22 +1130,24 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1218,11 +1216,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1237,10 +1236,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1253,9 +1256,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1272,11 +1275,24 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="10000"/>
+          <a:lumOff val="90000"/>
+        </a:schemeClr>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1340,43 +1356,32 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="256">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1384,12 +1389,20 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1404,9 +1417,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1423,9 +1436,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -1440,51 +1455,78 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="19050">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr/>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1496,30 +1538,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -1538,22 +1581,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1569,13 +1613,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1587,14 +1632,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1606,13 +1651,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1634,7 +1680,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1651,13 +1697,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1669,14 +1716,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1688,13 +1735,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1703,14 +1751,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1718,7 +1773,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1731,22 +1786,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1757,14 +1801,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1772,25 +1816,25 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
         <a:lumMod val="50000"/>
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1802,9 +1846,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1820,13 +1864,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1835,9 +1880,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1860,13 +1905,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2203450</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38555</xdr:rowOff>
+      <xdr:rowOff>32205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1878,7 +1923,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -1894,7 +1939,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="196850"/>
+          <a:off x="590550" y="190500"/>
           <a:ext cx="5918200" cy="1499055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1902,7 +1947,7 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1945,76 +1990,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="APP"/>
-      <sheetName val="Planilha2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>Percentual Sugerido</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>PAPEL</v>
-          </cell>
-          <cell r="C36">
-            <v>0.32</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>TIJOLO</v>
-          </cell>
-          <cell r="C37">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>HÍBRIDOS</v>
-          </cell>
-          <cell r="C38">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>FOFs</v>
-          </cell>
-          <cell r="C39">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>DESENVOLVIMENTO</v>
-          </cell>
-          <cell r="C40">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>HOTELARIAS</v>
-          </cell>
-          <cell r="C41">
-            <v>0.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2336,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34097D4-1B24-4721-8E85-FF24CA8BF3B8}">
   <dimension ref="A11:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2349,298 +2326,299 @@
   <sheetData>
     <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:4" ht="26" x14ac:dyDescent="0.45">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6">
-        <v>2000</v>
+      <c r="C13" s="43"/>
+      <c r="D13" s="3">
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7">
-        <v>6.0000000000000001E-3</v>
+      <c r="C14" s="45"/>
+      <c r="D14" s="4">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8">
-        <v>600</v>
+      <c r="C15" s="47"/>
+      <c r="D15" s="5">
+        <f>salario*0.3</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="29">
-        <v>200</v>
+      <c r="C19" s="43"/>
+      <c r="D19" s="18">
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="30">
+      <c r="C20" s="45"/>
+      <c r="D20" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="31">
-        <v>1.0789999999999999E-2</v>
+      <c r="C21" s="45"/>
+      <c r="D21" s="20">
+        <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="32" cm="1">
+      <c r="C22" s="49"/>
+      <c r="D22" s="21" cm="1">
         <f t="array" ref="D22">FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
-        <v>16755.382799697527</v>
+        <v>81526.718400762198</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="33">
+      <c r="C23" s="38"/>
+      <c r="D23" s="22">
         <f>patrimonio*rendimento_carteira</f>
-        <v>100.53229679818516</v>
+        <v>1222.900776011433</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="17">
+      <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="11">
         <f>FV($D$21,$A27*12,$D$19*-1)</f>
-        <v>5445.5254595290435</v>
-      </c>
-      <c r="D27" s="23">
+        <v>17213.235107673361</v>
+      </c>
+      <c r="D27" s="12">
         <f>C27*rendimento_carteira</f>
-        <v>32.673152757174265</v>
+        <v>258.19852661510043</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="17">
+      <c r="A28" s="6">
         <v>5</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="11">
         <f t="shared" ref="C28:C31" si="0">FV($D$21,$A28*12,$D$19*-1)</f>
-        <v>16755.382799697527</v>
-      </c>
-      <c r="D28" s="25">
+        <v>81526.718400762198</v>
+      </c>
+      <c r="D28" s="14">
         <f>C28*rendimento_carteira</f>
-        <v>100.53229679818516</v>
+        <v>1222.900776011433</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="17">
+      <c r="A29" s="6">
         <v>10</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="11">
         <f t="shared" si="0"/>
-        <v>48656.842506034438</v>
-      </c>
-      <c r="D29" s="25">
+        <v>561849.78559335484</v>
+      </c>
+      <c r="D29" s="14">
         <f>C29*rendimento_carteira</f>
-        <v>291.94105503620665</v>
+        <v>8427.746783900322</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="17">
+      <c r="A30" s="6">
         <v>20</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="11">
         <f t="shared" si="0"/>
-        <v>225039.68001941612</v>
-      </c>
-      <c r="D30" s="25">
+        <v>20064210.465464637</v>
+      </c>
+      <c r="D30" s="14">
         <f>C30*rendimento_carteira</f>
-        <v>1350.2380801164968</v>
+        <v>300963.15698196954</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="17">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="16">
         <f t="shared" si="0"/>
-        <v>864433.93100094295</v>
-      </c>
-      <c r="D31" s="28">
+        <v>697010401.13833296</v>
+      </c>
+      <c r="D31" s="17">
         <f>C31*rendimento_carteira</f>
-        <v>5186.6035860056581</v>
+        <v>10455156.017074995</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="36">
         <f>aporte</f>
-        <v>200</v>
-      </c>
-      <c r="D35" s="36"/>
+        <v>500</v>
+      </c>
+      <c r="D35" s="25"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.32</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="29">
         <f>C39*$C$35</f>
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.35</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="29">
         <f t="shared" ref="D40:D44" si="1">C40*$C$35</f>
-        <v>70</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.08</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="29">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B42,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="29">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B43,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="29">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B44,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="29">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28">
         <f>SUM(D39:D44)</f>
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2670,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E3ADDE-5A99-4D2A-8BD9-ECF02CD585FB}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2680,377 +2658,307 @@
     <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.54296875" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="str">
+      <c r="A3" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-PAPEL</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="8">
         <v>0.3</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="str">
+      <c r="A4" t="str">
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-TIJOLO</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="8">
         <v>0.5</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="51">
         <f>VLOOKUP(G4,$A:$D,4,FALSE)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="str">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HÍBRIDOS</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="8">
         <v>0.1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="str">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="8">
         <v>0.1</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="str">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41" t="str">
+      <c r="A8" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="32">
         <v>0</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="str">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="8">
         <v>0.32</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="str">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="8">
         <v>0.35</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="str">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HÍBRIDOS</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="8">
         <v>0.08</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="str">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="8">
         <v>0.05</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="str">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="8">
         <v>0.1</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="41" t="str">
+      <c r="A14" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="32">
         <v>0.1</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="str">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="8">
         <v>0.5</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="str">
+      <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="8">
         <v>0.1</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="str">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HÍBRIDOS</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="8">
         <v>0.05</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="str">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="8">
         <v>0.05</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="str">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="8">
         <v>0.2</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="str">
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="32">
         <v>0.1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{BFB0F605-9A74-4544-A2EA-7EBAE1BFDAAA}">
+      <formula1>$A$3:$A$20</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Simulador_Investimentos.xlsx
+++ b/Simulador_Investimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e43b9ebd7de16a7/Documents/GitHub/dio-vivo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{E7330DBF-1F4E-447C-8457-BC101A9306C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B88B8D5-8697-405E-A9EA-63A5AF1E8F9F}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{E7330DBF-1F4E-447C-8457-BC101A9306C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2540D6-CA3D-4615-9FC2-44288F99AE63}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="740" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{A1BEA54B-EB04-4B16-9327-7657BB427491}"/>
+    <workbookView xWindow="2420" yWindow="740" windowWidth="19200" windowHeight="11170" xr2:uid="{A1BEA54B-EB04-4B16-9327-7657BB427491}"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Dividendo</t>
   </si>
   <si>
-    <t>Quanto em 2 Anos ?</t>
-  </si>
-  <si>
     <t>Quanto em 5 Anos ?</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Quanto em 20 Anos ?</t>
   </si>
   <si>
-    <t>Quanto em 30 Anos ?</t>
-  </si>
-  <si>
     <t>PERFIL</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>Conservador-DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>Quanto em 1 Anos ?</t>
+  </si>
+  <si>
+    <t>Quanto em 15 Anos ?</t>
   </si>
 </sst>
 </file>
@@ -723,6 +723,8 @@
     <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -762,8 +764,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1900,55 +1900,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2203450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>32205</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73A1B09-E5A3-4953-8602-0A0185B788AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="9606"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590550" y="190500"/>
-          <a:ext cx="5918200" cy="1499055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1981,10 +1932,221 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Diagonal Corners Rounded 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A9344F-12F2-F149-2E17-736706B48961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="368300"/>
+          <a:ext cx="6019800" cy="1377950"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6F1F57-E328-35E2-3A6A-653EBE7DC46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="641350" y="882650"/>
+          <a:ext cx="5848350" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="114300">
+            <a:prstClr val="black"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:latin typeface="Goudy Stout" panose="0202090407030B020401" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GI-Grande</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:latin typeface="Goudy Stout" panose="0202090407030B020401" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> investimento</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:latin typeface="Goudy Stout" panose="0202090407030B020401" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphic 6" descr="Treasure chest with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631C49E0-B146-8DD0-FA56-4622AD3ED3ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="266700"/>
+          <a:ext cx="704850" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2313,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34097D4-1B24-4721-8E85-FF24CA8BF3B8}">
   <dimension ref="A11:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2333,28 +2495,28 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="3">
         <v>5000</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="5">
         <f>salario*0.3</f>
         <v>1500</v>
@@ -2362,54 +2524,54 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="18">
         <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="20">
         <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="21" cm="1">
         <f t="array" ref="D22">FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>81526.718400762198</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="22">
         <f>patrimonio*rendimento_carteira</f>
         <v>1222.900776011433</v>
@@ -2417,28 +2579,28 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11">
         <f>FV($D$21,$A27*12,$D$19*-1)</f>
-        <v>17213.235107673361</v>
+        <v>7096.0147807696439</v>
       </c>
       <c r="D27" s="12">
         <f>C27*rendimento_carteira</f>
-        <v>258.19852661510043</v>
+        <v>106.44022171154465</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -2446,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" ref="C28:C31" si="0">FV($D$21,$A28*12,$D$19*-1)</f>
@@ -2462,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="11">
         <f t="shared" si="0"/>
@@ -2475,48 +2637,48 @@
     </row>
     <row r="30" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" si="0"/>
-        <v>20064210.465464637</v>
+        <v>3391722.6592099997</v>
       </c>
       <c r="D30" s="14">
         <f>C30*rendimento_carteira</f>
-        <v>300963.15698196954</v>
+        <v>50875.839888149996</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="16">
         <f t="shared" si="0"/>
-        <v>697010401.13833296</v>
+        <v>20064210.465464637</v>
       </c>
       <c r="D31" s="17">
         <f>C31*rendimento_carteira</f>
-        <v>10455156.017074995</v>
+        <v>300963.15698196954</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="36">
         <f>aporte</f>
@@ -2526,18 +2688,18 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C39" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
@@ -2550,7 +2712,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
@@ -2563,7 +2725,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
@@ -2576,7 +2738,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B42,Planilha2!$A:$D,4,FALSE)</f>
@@ -2589,7 +2751,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B43,Planilha2!$A:$D,4,FALSE)</f>
@@ -2602,7 +2764,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="8">
         <f>VLOOKUP($C$34&amp;"-"&amp;B44,Planilha2!$A:$D,4,FALSE)</f>
@@ -2648,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E3ADDE-5A99-4D2A-8BD9-ECF02CD585FB}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2663,16 +2825,16 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2681,10 +2843,10 @@
         <v>Conservador-PAPEL</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="8">
         <v>0.3</v>
@@ -2696,18 +2858,18 @@
         <v>Conservador-TIJOLO</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8">
         <v>0.5</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="51">
+      <c r="G4" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="38">
         <f>VLOOKUP(G4,$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
@@ -2718,10 +2880,10 @@
         <v>Conservador-HÍBRIDOS</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8">
         <v>0.1</v>
@@ -2733,10 +2895,10 @@
         <v>Conservador-FOFs</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="8">
         <v>0.1</v>
@@ -2748,10 +2910,10 @@
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -2763,10 +2925,10 @@
         <v>Conservador-HOTELARIAS</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="32">
         <v>0</v>
@@ -2778,10 +2940,10 @@
         <v>Moderado-PAPEL</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8">
         <v>0.32</v>
@@ -2793,10 +2955,10 @@
         <v>Moderado-TIJOLO</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8">
         <v>0.35</v>
@@ -2808,10 +2970,10 @@
         <v>Moderado-HÍBRIDOS</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8">
         <v>0.08</v>
@@ -2823,10 +2985,10 @@
         <v>Moderado-FOFs</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="8">
         <v>0.05</v>
@@ -2838,10 +3000,10 @@
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8">
         <v>0.1</v>
@@ -2853,10 +3015,10 @@
         <v>Moderado-HOTELARIAS</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="32">
         <v>0.1</v>
@@ -2868,10 +3030,10 @@
         <v>Agressivo-PAPEL</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8">
         <v>0.5</v>
@@ -2883,10 +3045,10 @@
         <v>Agressivo-TIJOLO</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8">
         <v>0.1</v>
@@ -2898,10 +3060,10 @@
         <v>Agressivo-HÍBRIDOS</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8">
         <v>0.05</v>
@@ -2913,10 +3075,10 @@
         <v>Agressivo-FOFs</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="8">
         <v>0.05</v>
@@ -2928,10 +3090,10 @@
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8">
         <v>0.2</v>
@@ -2943,10 +3105,10 @@
         <v>Agressivo-HOTELARIAS</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="32">
         <v>0.1</v>
